--- a/plan/schedule.xlsx
+++ b/plan/schedule.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="week 1" sheetId="1" r:id="rId1"/>
+    <sheet name="week 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -85,13 +85,70 @@
   </si>
   <si>
     <t>Android</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>on going</t>
+  </si>
+  <si>
+    <t>Viet đặc tả Use case</t>
+  </si>
+  <si>
+    <t>Quản lý kho món ăn</t>
+  </si>
+  <si>
+    <t>Chọn món ăn trong ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cập nhật trạng thái món ăn </t>
+  </si>
+  <si>
+    <t>Xem menu</t>
+  </si>
+  <si>
+    <t>Gọi món ăn</t>
+  </si>
+  <si>
+    <t>Thanh toán</t>
+  </si>
+  <si>
+    <t>Quản lý món ăn đã gọi</t>
+  </si>
+  <si>
+    <t>Góp ý</t>
+  </si>
+  <si>
+    <t>Quản lý hóa đơn</t>
+  </si>
+  <si>
+    <t>Quan lý khuyễn mãi</t>
+  </si>
+  <si>
+    <t>Cập nhận các món đã gọi</t>
+  </si>
+  <si>
+    <t>Kiểm soát trạng thái bàn</t>
+  </si>
+  <si>
+    <t>Quảng cáo</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>Bé</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,8 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -131,13 +198,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -216,6 +384,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -250,6 +419,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,25 +595,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="55.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -467,9 +637,12 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -481,18 +654,24 @@
       <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>41217</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>41217</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -504,18 +683,24 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>41217</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>41219</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -527,18 +712,21 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>41220</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>41220</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -550,18 +738,21 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>41221</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>41222</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -573,17 +764,20 @@
       <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>41217</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>41217</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -593,21 +787,24 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>41218</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>41218</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C8">
@@ -616,37 +813,43 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>41219</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>41220</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>41222</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>41223</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -658,18 +861,21 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>41221</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>41222</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2">
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -681,18 +887,21 @@
       <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>41223</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>41223</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2">
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" t="s">
@@ -703,8 +912,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" t="s">
@@ -715,8 +924,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -727,8 +936,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" t="s">
@@ -739,61 +948,61 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>23</v>
       </c>
     </row>
@@ -802,29 +1011,454 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
   </mergeCells>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"on going"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>$P$2:$P$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>41225</v>
+      </c>
+      <c r="F2" s="2">
+        <v>41225</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>41226</v>
+      </c>
+      <c r="F3" s="2">
+        <v>41226</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>41223</v>
+      </c>
+      <c r="F18" s="2">
+        <v>41223</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C2:C18)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <f>7*8</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <f>2*7</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C21:C22)</f>
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I1:I23">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"on going"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Bé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Tuấn"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I23">
+      <formula1>$P$2:$P$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>$N$5:$N$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
